--- a/biology/Zoologie/Crittendenceratops/Crittendenceratops.xlsx
+++ b/biology/Zoologie/Crittendenceratops/Crittendenceratops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crittendenceratops krzyzanowskii
 Crittendenceratops (qui signifie « visage cornu de la formation de Fort Crittenden ») est un genre éteint de dinosaures cératopsidés de la sous-famille des Centrosaurinae à cornes de la formation de Fort Crittenden du Campanien tardif de l'Arizona, Etats-Unis. Il contient une seule espèce, Crittendenceratops krzyzanowskii, et représente la première espèce de dinosaure de la formation de Fort Crittenden à recevoir un nom scientifique officiel.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crittendenceratops se distingue par des cornes en forme de crochet incurvés vers l'avant situés le long de la partie centrale du haut de la collerette, des épipariétaux « étendus » situés le long des côtés de la partie pariétale de la collerette, un épaississement de la collerette dans la partie pariétale, et une crête courte et prononcée à la surface de la partie squamosale de la collerette[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crittendenceratops se distingue par des cornes en forme de crochet incurvés vers l'avant situés le long de la partie centrale du haut de la collerette, des épipariétaux « étendus » situés le long des côtés de la partie pariétale de la collerette, un épaississement de la collerette dans la partie pariétale, et une crête courte et prononcée à la surface de la partie squamosale de la collerette.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crittendenceratops a été attribué aux Nasutoceratopsini[2] (qui comprend également Avaceratops, Nasutoceratops et Yehuecauhceratops), une tribu de la sous-famille Centrosaurinae des cératopsidés, par Dalman et al. (2018). Le cladogramme ci-dessous suit leur analyse phylogénétique[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crittendenceratops a été attribué aux Nasutoceratopsini (qui comprend également Avaceratops, Nasutoceratops et Yehuecauhceratops), une tribu de la sous-famille Centrosaurinae des cératopsidés, par Dalman et al. (2018). Le cladogramme ci-dessous suit leur analyse phylogénétique :
 </t>
         </is>
       </c>
